--- a/北京市/旅游景区收集_北京市.xlsx
+++ b/北京市/旅游景区收集_北京市.xlsx
@@ -1971,9 +1971,6 @@
     <t>写秋轩</t>
   </si>
   <si>
-    <t>新建宫门</t>
-  </si>
-  <si>
     <t>荇桥</t>
   </si>
   <si>
@@ -2398,6 +2395,10 @@
   </si>
   <si>
     <t>天坛，在北京市南部，东城区永定门内大街东侧。占地约273万平方米。天坛始建于明永乐十八年（1420年），清乾隆、光绪时曾重修改建。为明、清两代帝王祭祀皇天、祈五谷丰登之场所。天坛是圜丘、祈谷两坛的总称，有坛墙两重，形成内外坛，坛墙南方北圆，象征天圆地方。主要建筑在内坛，圜丘坛在南、祈谷坛在北，二坛同在一条南北轴线上，中间有墙相隔。圜丘坛内主要建筑有圜丘坛、皇穹宇等等，祈谷坛内主要建筑有祈年殿、皇乾殿、祈年门等。</t>
+  </si>
+  <si>
+    <t>新建宫门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5776,7 +5777,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
@@ -6649,7 +6650,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="G2" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.75">
@@ -7419,8 +7420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7460,1226 +7461,1226 @@
     <row r="2" spans="1:7" ht="36">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>682</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>681</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>680</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>681</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>578</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>537</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>686</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>687</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>535</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>587</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>526</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>563</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>551</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>541</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="108">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>533</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="48">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>544</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>699</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>700</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="24">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="12" t="s">
         <v>710</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F31" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>712</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>571</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="36">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>580</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>543</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>538</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>540</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="36">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>560</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>584</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>567</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="48">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>539</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>528</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="24">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="24">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>546</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>716</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>717</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>577</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="48">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>719</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>720</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="48">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>586</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>574</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="48">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>530</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="36">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>548</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>564</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>579</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="24">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>552</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="36">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>549</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>547</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>542</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="36">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>550</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>581</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="48">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="48">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>555</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="48">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>562</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>558</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="60">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>531</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:7" customFormat="1" ht="60.75">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>568</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:7" customFormat="1" ht="60.75">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10" t="s">
@@ -8687,16 +8688,16 @@
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:7" customFormat="1" ht="48.75">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10" t="s">
@@ -8704,16 +8705,16 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:7" customFormat="1" ht="48.75">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10" t="s">
@@ -8721,16 +8722,16 @@
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:7" customFormat="1" ht="36.75">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10" t="s">
@@ -8738,16 +8739,16 @@
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:7" customFormat="1" ht="36.75">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10" t="s">
@@ -8755,16 +8756,16 @@
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:7" customFormat="1" ht="48.75">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10" t="s">
@@ -8772,16 +8773,16 @@
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="72" spans="1:7" customFormat="1" ht="48.75">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10" t="s">
@@ -8789,16 +8790,16 @@
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:7" customFormat="1" ht="36.75">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10" t="s">
@@ -8806,16 +8807,16 @@
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74" spans="1:7" customFormat="1" ht="48.75">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
@@ -8823,16 +8824,16 @@
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:7" customFormat="1" ht="48.75">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10" t="s">
@@ -8840,16 +8841,16 @@
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:7" customFormat="1" ht="24.75">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
@@ -8857,16 +8858,16 @@
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:7" customFormat="1" ht="36.75">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10" t="s">
@@ -8874,16 +8875,16 @@
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:7" customFormat="1" ht="48.75">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="10" t="s">
@@ -8891,16 +8892,16 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" spans="1:7" customFormat="1" ht="60.75">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10" t="s">
@@ -8908,16 +8909,16 @@
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" spans="1:7" customFormat="1" ht="60.75">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10" t="s">
@@ -8925,16 +8926,16 @@
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="81" spans="1:7" customFormat="1" ht="14.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10" t="s">
@@ -8942,16 +8943,16 @@
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:7" customFormat="1" ht="60.75">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10" t="s">
@@ -8959,16 +8960,16 @@
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:7" customFormat="1" ht="48.75">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10" t="s">
@@ -8976,16 +8977,16 @@
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" spans="1:7" customFormat="1" ht="24.75">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10" t="s">
@@ -8993,16 +8994,16 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85" spans="1:7" customFormat="1" ht="48.75">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10" t="s">
@@ -9010,16 +9011,16 @@
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:7" customFormat="1" ht="60.75">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10" t="s">
@@ -9027,101 +9028,101 @@
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="87" spans="1:7" customFormat="1" ht="36.75">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10" t="s">
-        <v>588</v>
+        <v>726</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="88" spans="1:7" customFormat="1" ht="48.75">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:7" customFormat="1" ht="36.75">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:7" customFormat="1" ht="48.75">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:7" customFormat="1" ht="36.75">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:7" customFormat="1" ht="24.75">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10" t="s">
@@ -9129,50 +9130,50 @@
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="93" spans="1:7" customFormat="1" ht="48.75">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:7" customFormat="1" ht="36.75">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:7" customFormat="1" ht="48.75">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10" t="s">
@@ -9180,24 +9181,24 @@
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="48">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/北京市/旅游景区收集_北京市.xlsx
+++ b/北京市/旅游景区收集_北京市.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="故宫博物馆" sheetId="1" r:id="rId1"/>
     <sheet name="天坛公园" sheetId="2" r:id="rId2"/>
     <sheet name="恭王府" sheetId="3" r:id="rId3"/>
     <sheet name="颐和园" sheetId="7" r:id="rId4"/>
+    <sheet name="八达岭长城" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="763">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2398,6 +2399,116 @@
   </si>
   <si>
     <t>新建宫门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北门锁钥</t>
+  </si>
+  <si>
+    <t>长城古炮</t>
+  </si>
+  <si>
+    <t>城墙</t>
+  </si>
+  <si>
+    <t>敌楼</t>
+  </si>
+  <si>
+    <t>跺墙</t>
+  </si>
+  <si>
+    <t>烽火台</t>
+  </si>
+  <si>
+    <t>关城</t>
+  </si>
+  <si>
+    <t>贵州碑亭</t>
+  </si>
+  <si>
+    <t>好汉碑</t>
+  </si>
+  <si>
+    <t>好汉坡</t>
+  </si>
+  <si>
+    <t>好汉石</t>
+  </si>
+  <si>
+    <t>居庸外镇</t>
+  </si>
+  <si>
+    <t>全周影院</t>
+  </si>
+  <si>
+    <t>望京广场</t>
+  </si>
+  <si>
+    <t>詹天佑纪念馆</t>
+  </si>
+  <si>
+    <t>中国长城博物馆</t>
+  </si>
+  <si>
+    <t>这座雄伟的关口叫做北门锁钥，是八达岭关城的西门。“北门”指的是此处的关城是居庸关的门户，同时也是京师的西北大门。“锁钥”则指这座关城坚固险要，有着举足轻重的军事地位，就像北京城和居庸关的一把锁。</t>
+  </si>
+  <si>
+    <t>根据考古报告，公元1551年（明嘉靖三十年）岔道城开始修筑，历经三十余年终于建成，整个城呈不规则长方形，中间略鼓，两端略缩依山势而建，北部城建在半山之上。城上设有马道，外侧宇墙设垛口、望孔、射口，南城墙有烽火台2座。</t>
+  </si>
+  <si>
+    <t>长城古炮中最大一尊炮筒长2.85米，口径105毫米，射程达千米以上，威力甚大。炮身上刻有&amp;quot;敕赐神威大将军&amp;quot;字样，为明代崇祯十一年，也就是1638年制造的。这个大炮是1958年从八达岭东十余里一个叫张堡的地方运来的。另外四尊牛腿小炮，是1957年整修长城时的出土文物，同时还发掘出数百枚炮弹，均为明朝制品。</t>
+  </si>
+  <si>
+    <t>长城说得形象一点，其实就是一道盘旋在崇山峻岭间的厚实长墙，长城脚下的老百姓一般都管长城叫做“边”，边关的边，即表示长城是一道绵延不绝的墙，也表示它是边关。</t>
+  </si>
+  <si>
+    <t>八达岭长城上一座座方形碉堡式建筑就是敌楼，是守城将士观察敌情，防御敌人的据点。八达岭长城上设有大大小小的敌楼43座，目前开放的是从南七楼至北十二楼的十九座敌楼。</t>
+  </si>
+  <si>
+    <t>长城城墙顶面两侧各有一道砖墙，两侧墙是有不同的功能的，对着关外的砖墙叫做跺墙。跺墙是防御敌人进攻的砖墙，因此修得较高。</t>
+  </si>
+  <si>
+    <t>所谓的烽火台可不是城墙上的这些敌楼，很多人都会误以为敌楼就是烽火台，其实烽火台是独立据守的碉堡。八达岭长城现存的烽火台有两个，分别在南三楼和北三楼西侧的山丘上。</t>
+  </si>
+  <si>
+    <t>长城的关城是万里长城防线上最为集中的防御据点。关城设置的位置至关重要，均是选择在有利防守的地形之处，以收到用极少的兵力抵御强大的入侵者的效果，古称“一夫当关，万夫莫开”，生动地说明了关城的重要性。关城设东、西关门，城门厚实坚固，门上有城台，城台修筑防御的射口、垛口和堞墙。</t>
+  </si>
+  <si>
+    <t>过了南五楼，长城顶面东侧有一条30多米长的小路，这条路通往的地方就是贵州碑亭。亭上有“贵州省修复长城纪念碑亭”的字样，是1985年修复长城活动中所里的第一座纪念碑。</t>
+  </si>
+  <si>
+    <t>平台上有一块汉白玉雕刻的石碑，石碑牌面上题写的正是毛主席亲笔的“不到长城非好汉”这七个红色大字，左侧落款是“毛泽东”三字。红色字体特别潇洒飘逸，是毛主席特有的草书写法。石碑顶部刻的是双龙戏珠图案，底座是汉白玉基座。基座上是红色字体的隶书“万里长城——八达岭”。</t>
+  </si>
+  <si>
+    <t>从北七楼到北八楼有一个明显的断面，就想整个城墙突然下沉。从断面处到北八楼的这一段城墙，又长又陡峭，这就是大名鼎鼎的好汉坡了。好汉坡坡陡路窄，攀爬需要充分的体力，攀爬中可以在途中多休息几次。</t>
+  </si>
+  <si>
+    <t>好汉石位于北四楼登城口下方的不远处，是一块表面呈正方形的巨石，表面刻着“好汉石”三个红色大字，非常的醒目。这块石头是自然地向外伸出了一个角，跟地面约有30度的夹角，而且周边环境非常局促。</t>
+  </si>
+  <si>
+    <t>这座雄伟的关口叫做居庸外镇，是八达岭长城关城的东门。这座东城门修建于明朝嘉靖十八年，大概是公元1539年，为砖石结构，城门横额上题有“居庸外镇”四个字。表示此处是居庸关的前哨阵地，是古代军事防御关口和交通要道。</t>
+  </si>
+  <si>
+    <t>长城全周影院就在八达岭长城脚下。它是目前国内唯一具有360度环幕与穹顶相结合的数字影院。最主要的是它播放的环幕电影《万里长城》，全景展现了由山海关开始，依山就势蜿蜒曲折，一直延伸到甘肃嘉峪关的中国万里长城，在加上全方位、高保真、立体声音响效果，让人感觉置身于万里长城的历史中，特别有感觉。</t>
+  </si>
+  <si>
+    <t>望京文化广场位于八达岭长城关城东门外南侧。这里有几个不错的合影景点，它们分别是望京台、八达岭石碑和望京石。</t>
+  </si>
+  <si>
+    <t>纪念馆在八达岭长城北侧，从关城西门往西沿道路走，大概一个多公里就到。纪念馆拥有藏品一千多件，大部分都是詹天佑的测绘用具、图纸、手稿、学会证书之类的，还有他保存的辛亥革命历史照片，都是很珍贵的材料。</t>
+  </si>
+  <si>
+    <t>长城博物馆就在八达岭长城西北方，从八达岭长城关城西门往西走，走到滚天沟停车场，长城博物馆就在停车场旁边。博物馆的整体是仿古式烽火台连体建筑。</t>
+  </si>
+  <si>
+    <t>八达岭长城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里长城有千百座名关险隘。作为天下“九塞”之一的居庸关外镇八达岭，以其地位之险要，历史之悠久，文化之丰富，建筑之宏伟，景色之壮观，名声之远大，堪称名关险隘之首；它是万里长城的杰出代表，明代长城中最为精华的地段。它是珍贵的人类文化遗产，世界瞩目的旅游胜地。</t>
+  </si>
+  <si>
+    <t>岔道古城</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7420,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -9206,4 +9317,356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="72.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="12">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36.75">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36.75">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36.75">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48.75">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.75">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.75">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.75">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="48.75">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.75">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36.75">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36.75">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36.75">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36.75">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48.75">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.75">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36.75">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24.75">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/北京市/旅游景区收集_北京市.xlsx
+++ b/北京市/旅游景区收集_北京市.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="故宫博物馆" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="恭王府" sheetId="3" r:id="rId3"/>
     <sheet name="颐和园" sheetId="7" r:id="rId4"/>
     <sheet name="八达岭长城" sheetId="10" r:id="rId5"/>
+    <sheet name="明十三陵" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="871">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2510,13 +2513,356 @@
   <si>
     <t>岔道古城</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明十三陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明长陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明长陵位于天寿山主峰南麓，是明朝第三位皇帝成祖朱棣和皇后徐氏的合葬陵寝。在十三陵中建筑规模最大，营建时间最早，地面建筑也保存得最为完好。它是十三陵中的祖陵，也是陵区内最主要的旅游景点之一。</t>
+  </si>
+  <si>
+    <t>祾恩殿</t>
+  </si>
+  <si>
+    <t>陵宫主建筑为祾恩殿，保存至今，基本完好。位于三层汉白玉石栏杆围绕的须弥式台基和一层陡板式的小台基上。台基之前出有三层月台，与台基连为一体。三层台基、月台皆有石雕护栏。大殿的柱网排列，采用“九五”规制（面阔九间，进深五间），排列规整。殿内的大木结构为叠梁式构架体系，重檐庑殿式，不堆山。梁柱等各构件用材粗壮，且均采用整材金丝楠木加工而成。殿宇各构件的结构形式具有典型的明代早期建筑特色。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明成祖朱棣铜像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明成祖朱棣将北平改为北京，并迁都北京，还把长陵建在了北京，以示立足北方的决心。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚帛炉古代亦称燎炉，常见于坛庙、陵墓、私家陵墓园等建筑，在祭奠仪式上用于焚烧祭祀物品。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚帛炉</t>
+  </si>
+  <si>
+    <t>方城明楼</t>
+  </si>
+  <si>
+    <t>明定陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明朝第13位皇帝神宗朱翊钧（1563年－1620年，年号万历）及其孝端显皇后、孝靖太后的合葬陵，是明十三陵之一，位于北京市昌平区大峪山东麓。</t>
+  </si>
+  <si>
+    <t>明楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖石结构，通体上下无片木寸钉，四角柱石下起台基，上至阑额，全系整块石料，上下檐的斗拱、额枋、椽、飞、望板、和上下檐之间的匾额，均为大块石料雕刻组装而成，施以油漆彩画，酷似木构建筑。楼内则用砖起券，作券顶，不仅巍峨壮观，而且坚固耐久，历经400余年风霜雨雪至今完好无损。</t>
+  </si>
+  <si>
+    <t>隧道门</t>
+  </si>
+  <si>
+    <t>隧道门位于明楼右侧宝城墙下，因城墙外侧砌砖有局部塌落而被发现，是发掘勘察期间最先找到的线索。考古人员据此在城内相应位置开挖了第一条探沟，发现了砖隧道及宝城墙内侧有“隧道门”三个字的刻石，在这条探沟内，找到了通向明楼西侧的砖隧道。</t>
+  </si>
+  <si>
+    <t>明昭陵</t>
+  </si>
+  <si>
+    <t>明朝永乐皇帝朱棣手上开凿的巨石碑，用途是为朱元璋立“神功圣德碑”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神功圣德碑</t>
+  </si>
+  <si>
+    <t>明十三陵是明朝迁都北京后13位皇帝陵墓的皇家陵寝的总称，依次建有长陵（成祖）、献陵（仁宗）、景陵（宣宗）、裕陵（英宗）、茂陵（宪宗）、泰陵（孝宗）、康陵（武宗）、永陵（世宗）、昭陵（穆宗）、定陵（神宗）、庆陵（光宗）、德陵（熹宗）、思陵（思宗），故称十三陵。景区已开放景点有长陵、定陵、昭陵、神路。</t>
+  </si>
+  <si>
+    <t>棂星门又叫龙风门。由四根石柱构成三个门洞，门柱类似华表，柱上有云板、异兽。在三个门额枋上的中央部分，还分别饰有一颗石雕火珠，因而该门又称“火焰牌坊”。龙凤门西北侧，原建有行宫，是帝后祭陵时的歇息之处。</t>
+  </si>
+  <si>
+    <t>神路是北京神道博物馆的第一个景点，由石牌坊，大红门，碑楼，石象生，龙凤门等组成。</t>
+  </si>
+  <si>
+    <t>总神道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石牌坊</t>
+  </si>
+  <si>
+    <t>牌坊结构为五楹、六柱、十一楼，全部用汉白玉雕砌，在额枋和柱石的上下，刻有龙、云图纹及麒麟、狮子等浮雕。这些图纹上原来曾饰有各色彩漆，因年代久远，现已剥蚀净尽。整个牌坊结构恢宏，雕刻精美，反映了明代石质建筑工艺的卓越水平。</t>
+  </si>
+  <si>
+    <t>大红门</t>
+  </si>
+  <si>
+    <t>大红门坐落于陵区的正南面，门分三洞，又名大宫门，为陵园的正门。大门两旁原各竖一通石碑，上刻"官员人等至此下马"字样。凡是前来祭陵的人，都必须从此步入陵园，以显示皇陵的无上尊严。大门两侧原设有两个角门，并连接着长达80华里的红色围墙。在蜿蜒连绵的围墙中，另设有一座小红门和十个出入口，均派有重兵驻守，是百姓不可接近的禁地。</t>
+  </si>
+  <si>
+    <t>神道</t>
+  </si>
+  <si>
+    <t>该道纵贯陵园南北，全长7公里，沿线设有一系列建筑物，错落有致，蔚为壮观。 碑亭位于神道中央，是一座歇山重檐、四出翘角的高大方形亭楼，为长陵所建。亭内竖有龙首龟趺石碑一块，高6米多。</t>
+  </si>
+  <si>
+    <t>石像生</t>
+  </si>
+  <si>
+    <t>从碑亭北的两根六角形的石柱起，至龙凤门止的千米神道两旁，整齐地排列着24只石兽和12个石人，造型生动，雕刻精细，深为游人所喜爱。其数量之多，形体之大，雕琢之精，保存之好，是古代陵园中罕见的。石兽共分6种，每种4只，均呈两立两跪状。</t>
+  </si>
+  <si>
+    <t>居庸关</t>
+  </si>
+  <si>
+    <t>云台</t>
+  </si>
+  <si>
+    <t>昭陵是明穆宗朱载垕与三位妻子——王妃李氏、皇后陈氏、贵妃李氏的合葬墓。该陵第一次形成了“哑巴院”形制，影响了此后的明朝诸陵及清朝入关以后的多座陵墓。</t>
+  </si>
+  <si>
+    <t>居庸关是长城其中一座出名的关城，与附近的八达岭长城同为首都北京西北方的重要屏障。与倒马关和紫荆关合称“内三关”。</t>
+  </si>
+  <si>
+    <t>云台位于北京市昌平区南口镇北的居庸关关城内，是元代大型过街喇嘛塔的基座。</t>
+  </si>
+  <si>
+    <t>方城明楼，上明楼，楼中立，庙谥碑下为方形城台，上为明楼，楼中立，庙谥碑。此式始于安徽凤阳明皇陵。中间一到陵墙四门如城楼，分别称南北东西明楼，及至南京明孝陵，仅有一座明楼，此后明清各帝陵均大致沿袭孝陵方城明楼形制。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个科技馆由五部分构成，分布在馆内5层。首先就是负一层的特效影院，它利用现代电影科技手段，使观众产生身临其境的感受，体验各类影视特效刺激，领略人与自然之美。中国科技馆特效影院设有球幕影院、巨幕影院、动感影院、4D影院四个特效影院。</t>
+  </si>
+  <si>
+    <t>奥林匹克森林公园南园</t>
+  </si>
+  <si>
+    <t>奥运塔</t>
+  </si>
+  <si>
+    <t>北顶娘娘庙</t>
+  </si>
+  <si>
+    <t>地震与建筑科学教育馆</t>
+  </si>
+  <si>
+    <t>国家会议中心</t>
+  </si>
+  <si>
+    <t>国家体育馆</t>
+  </si>
+  <si>
+    <t>火炬广场</t>
+  </si>
+  <si>
+    <t>景观大道</t>
+  </si>
+  <si>
+    <t>林泉高致</t>
+  </si>
+  <si>
+    <t>玲珑塔</t>
+  </si>
+  <si>
+    <t>龙型水系</t>
+  </si>
+  <si>
+    <t>楼兰姑娘</t>
+  </si>
+  <si>
+    <t>鸟巢</t>
+  </si>
+  <si>
+    <t>水立方</t>
+  </si>
+  <si>
+    <t>天境</t>
+  </si>
+  <si>
+    <t>下沉花园</t>
+  </si>
+  <si>
+    <t>雨燕塔</t>
+  </si>
+  <si>
+    <t>中国科技馆</t>
+  </si>
+  <si>
+    <t>如果说奥林匹克森林公园南园以花卉为主，那么奥林匹克森林公园的北园则是以树木为主。与南园的人工景观不同，300公顷的北园内野趣盎然，主要以自然生态绿色景观为主。</t>
+  </si>
+  <si>
+    <t>奥林匹克森林公园的南园，大多是人造景区。其中最主要的，就是这里的一山和一湖了，山即“仰山”， 湖即“奥海”，二者合起来意为“山高水长”，喻指奥运精神长存不息。</t>
+  </si>
+  <si>
+    <t>奥运塔，它是北京新的地标建筑，塔体由五座186米至246.8米不同高度的独立塔组合而成，在宽阔的奥林匹克公园内，异军突起、傲视四方。</t>
+  </si>
+  <si>
+    <t>北顶娘娘庙是明代皇家敕建的庙宇，庙内原供奉碧霞元君，是北京著名的“五顶八庙”中五顶之一；位于北京中轴线北延长线的北端，是北京北端的标志性建筑。史书上记载，北京城郊共有“五顶”庙，以东西南北中的方位命名，供奉着不同的娘娘。五顶娘娘庙各有特色，不过随着历史的变迁，五座娘娘庙都已残破不堪，如今只有这座北顶娘娘庙被重新修复。</t>
+  </si>
+  <si>
+    <t>地震与建筑科学教育馆，是北京市传播防震减灾知识的重要窗口，以最新的多媒体声光电作为展示手段，丰富多彩互动体验的方式，寓教于乐，使大家在参观过程中轻松地了解到地震相关知识，其中，暴风骤雨、虚拟灭火、水压车门、超巨幅270度沉浸式环幕影院等多项技术均属国内首创。</t>
+  </si>
+  <si>
+    <t>美观大方的国家会议中心集聚了中国古典建筑特色，屋顶部分采用四角微微上翘的结构，好似中国传统的屋檐，下方则形成一条向上拱起的弧线，形似中国传统的拱桥。</t>
+  </si>
+  <si>
+    <t>国家体育馆为金属屋面,外墙装饰为玻璃幕墙,行云流水般飘逸富于动感，设计灵感源于中国折扇。国家体育馆与“鸟巢”国家体育场、“水立方”国家游泳馆比邻而居，是北京2008年奥运会三大主要比赛场馆之一，该场馆内设有固定座位数18000个及临时座位数2000个。在奥运会期间，赛时功能为竞技体操、蹦床、手球的场馆，在残奥会期间的用途则是轮椅篮球的比赛场馆。</t>
+  </si>
+  <si>
+    <t>火炬广场由火炬和奥运冠军墙组合而成，由伫立在这里的奥运火炬而闻名。在奥运会后全长32米、重达46吨的奥运主火炬塔正式拆离鸟巢顶部，移至北侧热身场后，同奥运冠军墙一起组成奥林匹克公园新景观，落地后的主火炬塔至少可屹立50年不倒，并抗8级地震。</t>
+  </si>
+  <si>
+    <t>景观大道路边种有各种树木鲜花，春夏之际，鲜花盛开，花香四溢。一到秋冬，银杏纷纷飘落，在地上和树上堆满满金黄色，铺成一条金色大道。</t>
+  </si>
+  <si>
+    <t>“林泉高致”出自宋代郭熙画论《林泉高致》一书，“看山水亦有体,以林泉之心临之则价高,以骄侈之目临之则价低。”讲的就是，人要拥有林泉之心，摆脱世俗功利观，纯以闲静的心境来看待山水。有了这个“林泉之心”，才能够发现山水审美价值的“高低”。否则，虽“佳句好意，亦看不出，幽情美趣，亦想不成。”</t>
+  </si>
+  <si>
+    <t>玲珑塔的设计吸取了中国传统建筑文化中塔的元素，用钢结构和玻璃幕墙等先进技术和现代手法抽象表达出轻盈、玲珑、剔透、塔的特征。</t>
+  </si>
+  <si>
+    <t>公园中最引人注意的就是这条龙形水系。它南起鸟巢，北至森林公园的奥海，贯穿整个奥林匹克公园，因形似一条“龙”而得名。这龙形水系，就是将龙的形态融入到山川之中，龙的身体蜿蜒穿越森林公园，张开的龙嘴对着清河，而其尾巴则环绕着国家体育场，它与周边环境融为一体，浑然一体，生机无限，为整个奥林匹克公园带来吉祥和如意。</t>
+  </si>
+  <si>
+    <t>一片枯树环绕着一个双目紧闭、嘴角微微翘起的黄色雕塑，这就是美丽的楼兰姑娘塑像。</t>
+  </si>
+  <si>
+    <t>鸟巢的主体建筑，是南北长333米的巨型空间马鞍形钢桁（h&amp;eacute;ng）架编织式“鸟巢”结构，很多人这样形容这座建筑：那是一个用树枝般的钢网把一个可容10万人的体育场编织成的一个温馨鸟巢！“鸟巢”这个名字也由此而来。</t>
+  </si>
+  <si>
+    <t>“水于园中，园于美中，滨水建馆，依水而生，水与建筑相辅相成”，在众多奥运场馆中与水息息相关的就是这座外形呈方盒子状的建筑——水立方了。水立方也叫“国家游泳中心”，它与一墙之隔的“鸟巢”一起被称为北京奥运会两大标志性建筑物，这个湛蓝色的水分子建筑与东面的“鸟巢”，一圆一方，体现了中国“天圆地方”建筑理念。与主场馆“鸟巢”的设计相比，“水立方”体现了更多的女性般的柔美，一个阳刚，一个阴柔，形成鲜明对比，在视觉上极具冲击力。</t>
+  </si>
+  <si>
+    <t>“月下飞天镜，云生结海流。”李白诗中的天境是指月影，而我们现在说的天境，就是大家现在所处的这座山顶露台。这里是整个森林公园的最高点，登高而望远、宛若天境，鸟巢、水立方等奥运主场馆尽收眼底。</t>
+  </si>
+  <si>
+    <t>下沉花园7处独具中国特色的庭院自南向北分别为御道宫门、古木花厅、礼乐重门、穿越瀛洲、合院谐趣、水印长天。其中穿越瀛洲由两个庭院组成，其他皆为一个单独的庭院。</t>
+  </si>
+  <si>
+    <t>雨燕塔是一座方柱体的塔型建筑，高约20多米，四面都是密密麻麻的园洞的木板鸟窝。</t>
+  </si>
+  <si>
+    <t>奥林匹克公园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> 国家体育场</t>
+  </si>
+  <si>
+    <t>国家体育场主体是由一系列钢桁架围绕碗状座席区编织而成的"鸟巢"外形，空间结构新颖，建筑和结构浑然一体，独特、美观，具有很强的震撼力和视觉冲击力，充分体现了自然和谐之美。交错编织的巨大外立面，错落有致、光影斑驳的集散厅，直上云霄的钢结构大楼梯，犹如森林般的钢结构顶棚……不同的欣赏角度将会令游客领略到不同的建筑美感。</t>
+  </si>
+  <si>
+    <t>祥云火炬</t>
+  </si>
+  <si>
+    <t>奥林匹克火炬是经国际奥委会批准的、用于奥林匹克圣火燃烧的、可手持的火炬。奥林匹克火炬是奥林匹克圣火的载体。从1936年柏林奥运会开始，每届奥运会都诞生一支体现主办国家文化特色并符合高科技要求的火炬并成为奥林匹克运动的重要遗产。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风火轮</t>
+  </si>
+  <si>
+    <t>这款灵巧的“风火轮”使用简单，具有良好的敏捷度和安全性，每个人都能很快地熟练使用。在奥运会的各个地方，我们都能经常看到飞驰着的“风火轮”，它可以说是奥运工作者名副其实的好帮手。</t>
+  </si>
+  <si>
+    <t>小小搬运工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道您是否在奥运田径比赛中注意到过这个遥控电动小车？这是一位“小小搬运工”，在铁饼、标枪、链球比赛中，它都在绿茵场上不停地忙碌奔波，把投掷出的器材搬回投掷点。有了它的帮忙，工作人员可是节省了不少体力，也在很大程度上提高了比赛的组织效率。</t>
+  </si>
+  <si>
+    <t>奥运媒体区</t>
+  </si>
+  <si>
+    <t>场馆媒体中心主要由媒体看台（包括摄影记者席、文字记者席）、媒体工作间、混合媒体区、新闻发布厅、记者休息区等几部分组成。</t>
+  </si>
+  <si>
+    <t> 北京奥林匹克公园位于北京市朝阳区，地处北京城中轴线北端，北至清河南岸，南至北土城路，东至安立路和北辰东路，西至林翠路和北辰西路</t>
+  </si>
+  <si>
+    <t>奥林匹克比赛大厅是水立方的核心区域，整个大厅长：116m、宽：70m、高：30m、面积：8120㎡，内有两个泳池，游泳池25米*50米，水深3米；跳水池25米*30米，水深4.5-5.5米。坐席区拥有5000余个标准坐席，座椅水天一色，如同一池碧水飞溅出的层层浪花。大厅内空气质量优良，自然光线、声音效果、建筑构造和色彩等方面优美结合，共同营造出舒适、愉悦、令人兴奋的综合室内环境。</t>
+  </si>
+  <si>
+    <t>水立方热身池完全按照国际赛事标准建造，现分为深水区和浅水区，池水全部采用臭氧消毒、氯制剂作辅助的消毒方式，最大限度地保证了池水的质量；通风系统采用全空气系统，池岸温度常年保持在22-26度之间。</t>
+  </si>
+  <si>
+    <t>多功能大厅位于水立方西部的综合性功能区，整个大厅长：60m、宽：40m、高：17m、面积：2400㎡，可容纳约1000人。场地配有三块标准室内网球场，宽阔的面积和充足的高度为丰富多彩的展陈设计，国内、国际文化艺术交流提供了一流的展示、交流平台。</t>
+  </si>
+  <si>
+    <t>嬉水乐园是目前中国最大、世界最先进的室内嬉水乐园之一，并拥有多项首次亮相于世界的水上游乐设施。水立方嬉水乐园让游客于此晶莹剔透的水滴里体验前所未有的奇妙旅程，让游客与水立方零距离接触，体会巨大的、神奇的水立方里不可思议的美妙和欢乐。</t>
+  </si>
+  <si>
+    <t>港澳台同胞海外华侨华人支持北京2008奥运会纪念展</t>
+  </si>
+  <si>
+    <t>比赛大厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热身池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬉水乐园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向观众展现了水立方作为唯一一座由港澳台侨同胞捐资建设的奥运场馆的诞生历程，全面反映了海内外炎黄子孙心向奥运、为奥运场馆建设慷慨捐资的感人画面，充分体现了血浓于水的拳拳赤子真心。</t>
+  </si>
+  <si>
+    <t>北京奥运会水立方游泳纪念展</t>
+  </si>
+  <si>
+    <t>北京奥运会水立方游泳纪念展再现了中国游泳的精彩瞬间和北京奥运会史诗般的壮美辉煌，反映了丰富多彩的群众游泳活动，使观众感同身受地分享中国游泳军团的巅峰时刻与荣耀，激发强烈的爱国意识和报国情怀，并深刻感悟人与自然和谐相处、亲水向善的人文理念。</t>
+  </si>
+  <si>
+    <t>探秘馆</t>
+  </si>
+  <si>
+    <t>本展回顾了水立方这座神奇建筑的建设历程，通过丰富的实物展品和高科技的展示手段，引导观众深入发现和体验水立方建筑本身所蕴含的“绿色、科技、人文”三大理念，亲身感受建筑的独特魅力，进而讴歌和铭记水立方建设者的丰功伟绩。</t>
+  </si>
+  <si>
+    <t>水滴剧场</t>
+  </si>
+  <si>
+    <t>剧场面积约200平方米，座位150个，采用中国科学院激光研究所研发的尖端激光数字放映设备，可播放3D影片、激光高清影片等，同时可兼用于会议、发布会等商业文化活动。</t>
+  </si>
+  <si>
+    <t>南、北小楼</t>
+  </si>
+  <si>
+    <t>水立方南小楼共四层，北小楼共三层，拥有水吧、咖啡厅、泡泡吧、演播厅、小型多功能厅等。</t>
+  </si>
+  <si>
+    <t>南广场</t>
+  </si>
+  <si>
+    <t>可承接大型公关活动、户外展览展示等。</t>
+  </si>
+  <si>
+    <t>奥林匹克森林公园北园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林匹克森林公园</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2578,6 +2924,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2620,7 +2973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2654,6 +3007,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9323,8 +9693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9669,4 +10039,1144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="10.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16" customWidth="1"/>
+    <col min="7" max="7" width="65" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="12">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48.75">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36.75">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60.75">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36.75">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="13" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.75">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="48.75">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36.75">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36.75">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.75">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24.75">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36.75">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60.75">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36.75">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.75">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D18:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="4:6">
+      <c r="D18" t="s">
+        <v>813</v>
+      </c>
+      <c r="F18" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" t="s">
+        <v>814</v>
+      </c>
+      <c r="F19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="85.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="12">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24.75">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36.75">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.75">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36.75">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36.75">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.75">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36.75">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60.75">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="48.75">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.75">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36.75">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36.75">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48.75">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36.75">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36.75">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.75">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24.75">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36.75">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="48.75">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.75">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48.75">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36.75">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24.75">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36.75">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24.75">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="36.75">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24.75">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24.75">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="24.75">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="24.75">
+      <c r="A37" s="19"/>
+      <c r="B37" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/北京市/旅游景区收集_北京市.xlsx
+++ b/北京市/旅游景区收集_北京市.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="故宫博物馆" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,7 @@
     <sheet name="颐和园" sheetId="7" r:id="rId4"/>
     <sheet name="八达岭长城" sheetId="10" r:id="rId5"/>
     <sheet name="明十三陵" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId8"/>
+    <sheet name="奥林匹克公园" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="871">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9693,8 +9692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10457,45 +10456,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D18:F19"/>
-  <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="18" spans="4:6">
-      <c r="D18" t="s">
-        <v>813</v>
-      </c>
-      <c r="F18" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" t="s">
-        <v>814</v>
-      </c>
-      <c r="F19" t="s">
-        <v>833</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/北京市/旅游景区收集_北京市.xlsx
+++ b/北京市/旅游景区收集_北京市.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="故宫博物馆" sheetId="1" r:id="rId1"/>
@@ -9692,7 +9692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -10456,10 +10456,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10855,15 +10855,17 @@
         <v>837</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="E21" s="18"/>
+        <v>870</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>869</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="36.75">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24.75">
       <c r="A22" s="18"/>
       <c r="B22" s="18" t="s">
         <v>495</v>
@@ -10872,15 +10874,17 @@
         <v>837</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="E22" s="18"/>
+        <v>870</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>801</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="48.75">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.75">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>495</v>
@@ -10889,15 +10893,15 @@
         <v>837</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.75">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36.75">
       <c r="A24" s="18"/>
       <c r="B24" s="18" t="s">
         <v>495</v>
@@ -10906,12 +10910,12 @@
         <v>837</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.75">
@@ -10923,15 +10927,15 @@
         <v>837</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="36.75">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24.75">
       <c r="A26" s="18"/>
       <c r="B26" s="18" t="s">
         <v>495</v>
@@ -10940,15 +10944,15 @@
         <v>837</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.75">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48.75">
       <c r="A27" s="18"/>
       <c r="B27" s="18" t="s">
         <v>495</v>
@@ -10957,12 +10961,12 @@
         <v>837</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36.75">
@@ -10974,12 +10978,12 @@
         <v>837</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24.75">
@@ -10991,12 +10995,12 @@
         <v>837</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36.75">
@@ -11008,15 +11012,15 @@
         <v>837</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24.75">
       <c r="A31" s="18"/>
       <c r="B31" s="18" t="s">
         <v>495</v>
@@ -11025,15 +11029,15 @@
         <v>837</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="24.75">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="36.75">
       <c r="A32" s="18"/>
       <c r="B32" s="18" t="s">
         <v>495</v>
@@ -11042,15 +11046,15 @@
         <v>837</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="24.75">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="18"/>
       <c r="B33" s="18" t="s">
         <v>495</v>
@@ -11059,15 +11063,15 @@
         <v>837</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24.75">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>495</v>
@@ -11076,15 +11080,15 @@
         <v>837</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.75">
       <c r="A35" s="18"/>
       <c r="B35" s="18" t="s">
         <v>495</v>
@@ -11093,13 +11097,15 @@
         <v>837</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" ht="24.75">
+        <v>816</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="18"/>
       <c r="B36" s="18" t="s">
         <v>495</v>
@@ -11108,18 +11114,16 @@
         <v>837</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>869</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="24.75">
-      <c r="A37" s="19"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="18"/>
       <c r="B37" s="18" t="s">
         <v>495</v>
       </c>
@@ -11129,13 +11133,15 @@
       <c r="D37" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
-        <v>820</v>
-      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="18"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
